--- a/content/post/Fibonacci.xlsx
+++ b/content/post/Fibonacci.xlsx
@@ -26,7 +26,7 @@
     <t>Fibonacci</t>
   </si>
   <si>
-    <t>1stDigit</t>
+    <t>FirstDigit</t>
   </si>
   <si>
     <t>1</t>
@@ -80,12 +80,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -98,16 +104,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -124,28 +130,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="10" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -165,6 +171,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -316,9 +323,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -398,7 +405,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -426,10 +433,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -685,9 +692,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -975,7 +982,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1003,10 +1010,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
